--- a/medicine/Mort/Terrorisme_en_1994/Terrorisme_en_1994.xlsx
+++ b/medicine/Mort/Terrorisme_en_1994/Terrorisme_en_1994.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Chronologie du terrorisme
@@ -525,30 +537,304 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Janvier
-Février
-25 février, Palestine : le massacre du Tombeau des Patriarches à Hébron, perpétré par Baruch Goldstein, fait vingt-neuf morts et cent vingt-cinq blessés[réf. souhaitée].
-Mars
-Avril
-6 avril, Israël : un attentat à la voiture piégée à Afoula fait neuf morts. L'attaque est revendiquée par le Hamas[1]. Cette campagne d'attentats, dont trois seront annulés à la suite de la signature d'un accord en mai 1994 qui donne des pouvoirs limités à l'Autorité palestinienne, fait partie à l'origine d'une décision de vengeance, prise par le Hamas, à la suite du massacre d'Hébron perpétré par Baruch Goldstein[1].
-13 avril, Israël : un attentat-suicide à la ceinture piégée, à Hadera fait morts[1].
-Mai
-mai, États-Unis : quatre islamiste intégristes sont condamnés à un total de deux cent quarante ans de prison pour l'attentat au camion piégé dans le sous-sol du World Trade Center de février 1993[2].
-Juin
-18 juin, Irlande du Nord : une fusillade dans un pub du comté de Down fait six morts. L'attentat est revendiqué par l'Ulster Volunteer Force[réf. souhaitée].
-28 juin, Japon : un attentat au gaz sarin à Matsumoto cause la mort de huit personnes. Deux cents autres personnes sont intoxiquées. Des résidents de la ville s'étaient opposés à la secte Aum Shinrikyo[3].
-Juillet
-18 juillet, Argentine : un attentat à la voiture piégée à Buenos Aires contre l'Association mutuelle israélite argentine fait quatre-vingt-cinq morts et trois cents blessés[4].
-Août
-13 août 1994, Algérie : attentat d'Aïn Allah
-24 août 1994, Maroc : l'assassinat de deux touristes espagnols dans un hôtel de Marrakech entraîne la fermeture de la frontière entre l'Algérie et le Maroc[5].
-Septembre
-Octobre
-du 12 octobre 1994 au 21 août 1995, Israël : une série de sept attentats-suicides, dont trois revendiqués par le Djihad islamique et quatre par le Hamas, qui ont lieu à Tel Aviv, Netzarim, Jérusalem, et Beit Lid, causant la mort de soixante-cinq personnes[1].
-Novembre
-1er novembre, Algérie : l'explosion d'une bombe au cimetière de Mostaganem tue cinq enfants et fait dix-sept blessés[6].
-Décembre
-24 décembre, France : la prise d'otage d'un vol d'Air France Alger-Paris par des membres du GIA algérien et l'assaut du GIGN à l'aéroport de Marignane causent la mort de trois personnes, en plus des quatre preneurs d'otage[7],[8].</t>
+          <t>Février</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>25 février, Palestine : le massacre du Tombeau des Patriarches à Hébron, perpétré par Baruch Goldstein, fait vingt-neuf morts et cent vingt-cinq blessés[réf. souhaitée].</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Terrorisme_en_1994</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Terrorisme_en_1994</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Événements</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Avril</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>6 avril, Israël : un attentat à la voiture piégée à Afoula fait neuf morts. L'attaque est revendiquée par le Hamas. Cette campagne d'attentats, dont trois seront annulés à la suite de la signature d'un accord en mai 1994 qui donne des pouvoirs limités à l'Autorité palestinienne, fait partie à l'origine d'une décision de vengeance, prise par le Hamas, à la suite du massacre d'Hébron perpétré par Baruch Goldstein.
+13 avril, Israël : un attentat-suicide à la ceinture piégée, à Hadera fait morts.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Terrorisme_en_1994</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Terrorisme_en_1994</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Événements</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Mai</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>mai, États-Unis : quatre islamiste intégristes sont condamnés à un total de deux cent quarante ans de prison pour l'attentat au camion piégé dans le sous-sol du World Trade Center de février 1993.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Terrorisme_en_1994</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Terrorisme_en_1994</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Événements</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Juin</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>18 juin, Irlande du Nord : une fusillade dans un pub du comté de Down fait six morts. L'attentat est revendiqué par l'Ulster Volunteer Force[réf. souhaitée].
+28 juin, Japon : un attentat au gaz sarin à Matsumoto cause la mort de huit personnes. Deux cents autres personnes sont intoxiquées. Des résidents de la ville s'étaient opposés à la secte Aum Shinrikyo.</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Terrorisme_en_1994</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Terrorisme_en_1994</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Événements</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Juillet</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>18 juillet, Argentine : un attentat à la voiture piégée à Buenos Aires contre l'Association mutuelle israélite argentine fait quatre-vingt-cinq morts et trois cents blessés.</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Terrorisme_en_1994</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Terrorisme_en_1994</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Événements</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Août</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>13 août 1994, Algérie : attentat d'Aïn Allah
+24 août 1994, Maroc : l'assassinat de deux touristes espagnols dans un hôtel de Marrakech entraîne la fermeture de la frontière entre l'Algérie et le Maroc.</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Terrorisme_en_1994</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Terrorisme_en_1994</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Événements</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Octobre</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>du 12 octobre 1994 au 21 août 1995, Israël : une série de sept attentats-suicides, dont trois revendiqués par le Djihad islamique et quatre par le Hamas, qui ont lieu à Tel Aviv, Netzarim, Jérusalem, et Beit Lid, causant la mort de soixante-cinq personnes.</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Terrorisme_en_1994</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Terrorisme_en_1994</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Événements</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Novembre</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>1er novembre, Algérie : l'explosion d'une bombe au cimetière de Mostaganem tue cinq enfants et fait dix-sept blessés.</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Terrorisme_en_1994</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Terrorisme_en_1994</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Événements</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Décembre</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>24 décembre, France : la prise d'otage d'un vol d'Air France Alger-Paris par des membres du GIA algérien et l'assaut du GIGN à l'aéroport de Marignane causent la mort de trois personnes, en plus des quatre preneurs d'otage,.</t>
         </is>
       </c>
     </row>
